--- a/Plantilla-Proyecto.xlsx
+++ b/Plantilla-Proyecto.xlsx
@@ -5,17 +5,18 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USUARIO2\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USUARIO2\Documents\Proyecto-Ciclo3\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7224" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7224"/>
   </bookViews>
   <sheets>
     <sheet name="Tablero" sheetId="1" r:id="rId1"/>
-    <sheet name="BD-cliente" sheetId="2" r:id="rId2"/>
-    <sheet name="BD-usuario" sheetId="3" r:id="rId3"/>
-    <sheet name="BD-do" sheetId="4" r:id="rId4"/>
+    <sheet name="BD-empleado" sheetId="3" r:id="rId2"/>
+    <sheet name="BD-cliente" sheetId="2" r:id="rId3"/>
+    <sheet name="BD-pedido" sheetId="4" r:id="rId4"/>
+    <sheet name="MODELO-DATOS" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="55">
   <si>
     <t>DO</t>
   </si>
@@ -120,12 +121,6 @@
     <t>APELLIDO_MATERNO</t>
   </si>
   <si>
-    <t>PRIMER_NOMBRE</t>
-  </si>
-  <si>
-    <t>SEGUNDO_NOMBRE</t>
-  </si>
-  <si>
     <t>USUARIO</t>
   </si>
   <si>
@@ -144,14 +139,71 @@
     <t>FACTURAS</t>
   </si>
   <si>
-    <t>FECHA</t>
+    <t>ESTADO</t>
+  </si>
+  <si>
+    <t>NOMBRES</t>
+  </si>
+  <si>
+    <t>https://lucid.app/lucidchart/b9c540d8-980b-44fd-a7ee-2c51871e4e60/edit?viewport_loc=-183%2C200%2C2223%2C992%2CHWEp-vi-RSFO&amp;invitationId=inv_338e4d1d-6a58-42df-aaf1-c5bce2015846#</t>
+  </si>
+  <si>
+    <t>UML</t>
+  </si>
+  <si>
+    <t>DO_PEDIDO</t>
+  </si>
+  <si>
+    <t>https://lucid.app/lucidchart/edbac5e3-d25b-447c-8722-26fccb8c63ac/edit?viewport_loc=-1061%2C-492%2C4096%2C1828%2C0_0&amp;invitationId=inv_ec482d4f-e0fc-4864-bcee-d9b076c4bafe#</t>
+  </si>
+  <si>
+    <t>ID_EMPLEADO</t>
+  </si>
+  <si>
+    <t>ID_CLIENTE</t>
+  </si>
+  <si>
+    <t>ID_PEDIDO</t>
+  </si>
+  <si>
+    <t>DOCUMENTO</t>
+  </si>
+  <si>
+    <t>RADICADO</t>
+  </si>
+  <si>
+    <t>NUM_TIM</t>
+  </si>
+  <si>
+    <t>PAGO_DECLARACION</t>
+  </si>
+  <si>
+    <t>INGRESO_VACIO</t>
+  </si>
+  <si>
+    <t>FACTURA</t>
+  </si>
+  <si>
+    <t>ENTIDAD-RELACION</t>
+  </si>
+  <si>
+    <t>2022-067-PI-58</t>
+  </si>
+  <si>
+    <t>CAMARON</t>
+  </si>
+  <si>
+    <t>LB0LX503091</t>
+  </si>
+  <si>
+    <t>#</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -199,6 +251,14 @@
     <font>
       <sz val="12"/>
       <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -254,10 +314,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -283,11 +344,13 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -566,105 +629,110 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M3"/>
+  <dimension ref="A1:N8"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.77734375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="25" customWidth="1"/>
+    <col min="1" max="1" width="3.77734375" customWidth="1"/>
+    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:14" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A1" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-    </row>
-    <row r="2" spans="1:13" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+    </row>
+    <row r="2" spans="1:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+      <c r="N2" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>34</v>
-      </c>
       <c r="C3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="4">
+      <c r="F3" s="4">
         <v>44770</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>15</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>15</v>
@@ -672,25 +740,78 @@
       <c r="H3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="J3" s="3">
+      <c r="I3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="K3" s="3">
         <v>22870209</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="L3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L3" s="7" t="s">
+      <c r="M3" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="M3" s="8" t="s">
+      <c r="N3" s="8" t="s">
         <v>17</v>
       </c>
+    </row>
+    <row r="4" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="3">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F4" s="4">
+        <v>44801</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="K4" s="3">
+        <v>22870284</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="M4" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="N4" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B6" s="9"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B8" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="A1:N1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -699,10 +820,83 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A6"/>
+  <dimension ref="A1:A11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="21.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -712,105 +906,42 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="21.33203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -820,30 +951,135 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:A6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-    </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="A3" s="9" t="s">
         <v>37</v>
       </c>
     </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" s="9"/>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A3" r:id="rId1"/>
+    <hyperlink ref="A6" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>